--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1348.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1348.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.139198781682706</v>
+        <v>1.203683137893677</v>
       </c>
       <c r="B1">
-        <v>2.610906563365868</v>
+        <v>2.652856111526489</v>
       </c>
       <c r="C1">
-        <v>4.276455412638048</v>
+        <v>9.297165870666504</v>
       </c>
       <c r="D1">
-        <v>2.525857960628101</v>
+        <v>2.061556816101074</v>
       </c>
       <c r="E1">
-        <v>1.175237934717752</v>
+        <v>1.20168673992157</v>
       </c>
     </row>
   </sheetData>
